--- a/Requirements/Schema design SIA.xlsx
+++ b/Requirements/Schema design SIA.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pujju\Office\Internship 2k18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranjal Kumar Singh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_SECOND_FORMAT" hidden="1">" "</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,198 +28,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>jobRoles</t>
   </si>
   <si>
+    <t>jobRoleId varchar(10)</t>
+  </si>
+  <si>
+    <t>jobRole varchar(50)</t>
+  </si>
+  <si>
+    <t>sectorSkillCouncil varchar(100)</t>
+  </si>
+  <si>
     <t>trainingCenter</t>
   </si>
   <si>
+    <t>trainingCenterName varchar(100)</t>
+  </si>
+  <si>
+    <t>trainingCenterId varchar(50)</t>
+  </si>
+  <si>
+    <t>state varchar(100)</t>
+  </si>
+  <si>
+    <t>district varchar(100)</t>
+  </si>
+  <si>
+    <t>instititeType varchar(100)</t>
+  </si>
+  <si>
+    <t>address varchar(50)</t>
+  </si>
+  <si>
+    <t>contactNumber int(11)</t>
+  </si>
+  <si>
     <t>jobOpeninings</t>
   </si>
   <si>
+    <t>jobTitle varchar(100)</t>
+  </si>
+  <si>
+    <t>organization varchar(100)</t>
+  </si>
+  <si>
+    <t>location varchar(100)</t>
+  </si>
+  <si>
+    <t>ctc (int(10)</t>
+  </si>
+  <si>
+    <t>jobDescription varchar(100)</t>
+  </si>
+  <si>
+    <t>jobRoleId varchar(100)</t>
+  </si>
+  <si>
     <t>trainingMaterial</t>
   </si>
   <si>
+    <t xml:space="preserve">jobRoleId varchar(50) </t>
+  </si>
+  <si>
+    <t>trainingMaterialId varchar(50)</t>
+  </si>
+  <si>
+    <t>trainingTitle varchar(100)</t>
+  </si>
+  <si>
+    <t>source varchar(500)</t>
+  </si>
+  <si>
     <t>reportIssues</t>
   </si>
   <si>
-    <t>jobRoleId varchar(10)</t>
-  </si>
-  <si>
-    <t>trainingCenterId varchar(50)</t>
-  </si>
-  <si>
-    <t>jobRoleId varchar(100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobRoleId varchar(50) </t>
-  </si>
-  <si>
     <t>issueId varchar(35)</t>
   </si>
   <si>
-    <t>jobRole varchar(50)</t>
-  </si>
-  <si>
-    <t>trainingCenterName varchar(100)</t>
-  </si>
-  <si>
-    <t>jobTitle varchar(100)</t>
-  </si>
-  <si>
-    <t>trainingMaterialId varchar(50)</t>
-  </si>
-  <si>
     <t>candidateName varchar(100)</t>
   </si>
   <si>
-    <t>sectorSkillCouncil varchar(100)</t>
-  </si>
-  <si>
-    <t>state varchar(100)</t>
-  </si>
-  <si>
-    <t>organization varchar(100)</t>
-  </si>
-  <si>
-    <t>trainingTitle varchar(100)</t>
-  </si>
-  <si>
     <t>candidateId vachar(35)</t>
   </si>
   <si>
-    <t>district varchar(100)</t>
-  </si>
-  <si>
-    <t>location varchar(100)</t>
-  </si>
-  <si>
-    <t>source varchar(500)</t>
-  </si>
-  <si>
     <t>issueWith varchar(100)</t>
   </si>
   <si>
+    <t>issueType varchar(100)</t>
+  </si>
+  <si>
+    <t>instituteName varchar(100)</t>
+  </si>
+  <si>
+    <t>instituteId varchar(100)</t>
+  </si>
+  <si>
+    <t>issueDescription text</t>
+  </si>
+  <si>
     <t>candidate</t>
   </si>
   <si>
-    <t>instititeType varchar(100)</t>
-  </si>
-  <si>
-    <t>issueType varchar(100)</t>
-  </si>
-  <si>
     <t>candidateId varchar(35)</t>
   </si>
   <si>
-    <t>address varchar(50)</t>
-  </si>
-  <si>
-    <t>jobDescription varchar(100)</t>
+    <t>age int(3)</t>
+  </si>
+  <si>
+    <t>email varchar(100)</t>
+  </si>
+  <si>
+    <t>documentsAndPolicies</t>
+  </si>
+  <si>
+    <t>policyId varchar(35)</t>
+  </si>
+  <si>
+    <t>title varchar(100)</t>
+  </si>
+  <si>
+    <t>path varchar(500)</t>
+  </si>
+  <si>
+    <t>skillCompetition</t>
+  </si>
+  <si>
+    <t>Id varchar(35)</t>
   </si>
   <si>
     <t>webinars</t>
   </si>
   <si>
-    <t>instituteName varchar(100)</t>
-  </si>
-  <si>
-    <t>contactNumber int(11)</t>
-  </si>
-  <si>
     <t>webinarId varchar(35)</t>
   </si>
   <si>
-    <t>instituteId varchar(100)</t>
-  </si>
-  <si>
-    <t>age int(3)</t>
-  </si>
-  <si>
-    <t>title varchar(100)</t>
-  </si>
-  <si>
-    <t>issueDescription text</t>
-  </si>
-  <si>
-    <t>documentsAndPolicies</t>
-  </si>
-  <si>
-    <t>skillCompetition</t>
-  </si>
-  <si>
     <t>category varchar(100)</t>
   </si>
   <si>
-    <t>email varchar(100)</t>
-  </si>
-  <si>
-    <t>policyId varchar(35)</t>
-  </si>
-  <si>
-    <t>Id varchar(35)</t>
-  </si>
-  <si>
     <t>author varchar(100)</t>
   </si>
   <si>
+    <t>schedule date</t>
+  </si>
+  <si>
+    <t>isActive boolean</t>
+  </si>
+  <si>
+    <t>participantName varchar(100)</t>
+  </si>
+  <si>
+    <t>participantEmail varchar(100)</t>
+  </si>
+  <si>
+    <t>participantAddress varchar(200)</t>
+  </si>
+  <si>
+    <t>participantAge int(3)</t>
+  </si>
+  <si>
+    <t>skillSector varchar(100)</t>
+  </si>
+  <si>
+    <t>skillSectorCategory(100)</t>
+  </si>
+  <si>
+    <t>skillGapStudyState</t>
+  </si>
+  <si>
+    <t>documentTitle varchar(100)</t>
+  </si>
+  <si>
+    <t>fileSource varchar(200)</t>
+  </si>
+  <si>
     <t>skillGapStudyIndustry</t>
   </si>
   <si>
-    <t>participantName varchar(100)</t>
-  </si>
-  <si>
-    <t>schedule date</t>
+    <t>source varchar(100)</t>
   </si>
   <si>
     <t>studyId varchar(35)</t>
   </si>
   <si>
-    <t>path varchar(500)</t>
-  </si>
-  <si>
-    <t>participantEmail varchar(100)</t>
-  </si>
-  <si>
-    <t>isActive boolean</t>
-  </si>
-  <si>
-    <t>participantAddress varchar(200)</t>
-  </si>
-  <si>
-    <t>participantAge int(3)</t>
-  </si>
-  <si>
-    <t>skillGapStudyState</t>
-  </si>
-  <si>
-    <t>source varchar(100)</t>
-  </si>
-  <si>
-    <t>skillSector varchar(100)</t>
-  </si>
-  <si>
-    <t>skillSectorCategory(100)</t>
-  </si>
-  <si>
-    <t>documentTitle varchar(100)</t>
-  </si>
-  <si>
-    <t>fileSource varchar(200)</t>
-  </si>
-  <si>
     <t>column name</t>
   </si>
   <si>
     <t>Primary Key</t>
   </si>
   <si>
-    <t>Foreign key</t>
-  </si>
-  <si>
-    <t>ctc  int(10)</t>
+    <t>csrFunds</t>
+  </si>
+  <si>
+    <t>csrApplicationNumber int(11)</t>
+  </si>
+  <si>
+    <t>organizationName vatchar(50)</t>
+  </si>
+  <si>
+    <t>spocName varchar(50)</t>
+  </si>
+  <si>
+    <t>spocEmail varchar(50)</t>
+  </si>
+  <si>
+    <t>spocPhone bigint(11)</t>
+  </si>
+  <si>
+    <t>amountDeposited bigint(11)</t>
+  </si>
+  <si>
+    <t>submissionDate date</t>
+  </si>
+  <si>
+    <t>trainingPartnerId varchar(20)</t>
+  </si>
+  <si>
+    <t>placementNumbers int(5)</t>
+  </si>
+  <si>
+    <t>trainingPartnerPlacements</t>
+  </si>
+  <si>
+    <t>trainingPartnerName varchar(200)</t>
+  </si>
+  <si>
+    <t>certified boolean</t>
+  </si>
+  <si>
+    <t>industryPartnerships</t>
+  </si>
+  <si>
+    <t>industryId varchar(20)</t>
+  </si>
+  <si>
+    <t>industryName varchar(45)</t>
+  </si>
+  <si>
+    <t>industryDomain varchar(100)</t>
+  </si>
+  <si>
+    <t>jobRoleid varchar(10)</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
   </si>
 </sst>
 </file>
@@ -356,7 +414,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,6 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,383 +753,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="8" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="C11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="4" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>